--- a/olafia/2 Anamnese/Engelsk oversettelse Selvregistreringsskjemaet Anne og Patricia.xlsx
+++ b/olafia/2 Anamnese/Engelsk oversettelse Selvregistreringsskjemaet Anne og Patricia.xlsx
@@ -17,14 +17,48 @@
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$C$1:$F$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Ark1'!$A$1:$G$111</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Bjørn Næss</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Bjørn Næss:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The original index (order) </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="287">
   <si>
     <t>Innledende spørsmål</t>
   </si>
@@ -869,13 +903,31 @@
   </si>
   <si>
     <t>CK03</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -913,6 +965,19 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1291,1568 +1356,2021 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
-    <col min="5" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="6" width="47.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="19" style="4" customWidth="1"/>
+    <col min="7" max="7" width="47.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" t="s">
         <v>210</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" t="s">
         <v>212</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E23" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" t="s">
         <v>213</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E24" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" t="s">
         <v>214</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D25" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D38" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" t="s">
+        <v>258</v>
+      </c>
+      <c r="D40" t="s">
+        <v>260</v>
+      </c>
+      <c r="E40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" t="s">
+        <v>253</v>
+      </c>
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="G55" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>274</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C56" t="s">
         <v>275</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D56" t="s">
         <v>276</v>
       </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" t="s">
-        <v>277</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>273</v>
-      </c>
-      <c r="B19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="G64" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>273</v>
-      </c>
-      <c r="B20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>273</v>
-      </c>
-      <c r="B21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B23" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>273</v>
-      </c>
-      <c r="B24" t="s">
-        <v>220</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>273</v>
-      </c>
-      <c r="B26" t="s">
-        <v>222</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C31" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C33" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
         <v>18</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E65" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G65" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" t="s">
-        <v>181</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>235</v>
-      </c>
-      <c r="C54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
-        <v>214</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C57" t="s">
-        <v>185</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C62" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C64" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C66" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
         <v>43</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="G66" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C67" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="G67" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C68" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
         <v>54</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="G68" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C69" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
         <v>55</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="G69" s="11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C70" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
         <v>56</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="G70" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C71" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
         <v>57</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="G71" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C72" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="G72" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C73" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
         <v>59</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="G73" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C74" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="G74" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C75" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="G75" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C76" s="1" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="G76" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C77" t="s">
+    <row r="77" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="G77" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="3:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="C78" t="s">
+    <row r="78" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
         <v>64</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="F78" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="G78" s="8" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C79" t="s">
-        <v>36</v>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
       </c>
       <c r="D79" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="G79" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C80" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
         <v>37</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>120</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="G80" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C81" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
         <v>4</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>80</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="G81" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="C82" t="s">
+    <row r="82" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="D82" t="s">
         <v>65</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>148</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="F82" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C83" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
         <v>33</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>102</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="G83" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C84" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
         <v>45</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>91</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="G84" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C85" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
         <v>18</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>103</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="G85" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C86" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
         <v>66</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>149</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="F86" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="G86" s="8" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="C87" t="s">
+    <row r="87" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
         <v>67</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>150</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="F87" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="G87" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" t="s">
+        <v>277</v>
+      </c>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>274</v>
+      </c>
+      <c r="C89" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" t="s">
+        <v>278</v>
+      </c>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" t="s">
+        <v>106</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" t="s">
+        <v>107</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" t="s">
+        <v>230</v>
+      </c>
+      <c r="D96" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="D97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="D98" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" t="s">
+        <v>118</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="D99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" t="s">
+        <v>119</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" t="s">
+        <v>231</v>
+      </c>
+      <c r="D100" t="s">
+        <v>28</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>281</v>
+      </c>
+      <c r="C101" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>281</v>
+      </c>
+      <c r="C102" t="s">
+        <v>233</v>
+      </c>
+      <c r="D102" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>283</v>
+      </c>
+      <c r="C103" t="s">
         <v>237</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D103" t="s">
         <v>68</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E103" t="s">
         <v>111</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="G103" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>283</v>
+      </c>
+      <c r="C104" t="s">
         <v>238</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D104" t="s">
         <v>69</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E104" t="s">
         <v>112</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="G104" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" t="s">
         <v>239</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D105" t="s">
         <v>70</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E105" t="s">
         <v>70</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="G105" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B91" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>283</v>
+      </c>
+      <c r="C106" t="s">
         <v>240</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D106" t="s">
         <v>71</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E106" t="s">
         <v>113</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="G106" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" t="s">
         <v>241</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D107" t="s">
         <v>72</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E107" t="s">
         <v>114</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="G107" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B93" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" t="s">
         <v>242</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D108" t="s">
         <v>73</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E108" t="s">
         <v>73</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="G108" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B94" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" t="s">
         <v>243</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D109" t="s">
         <v>74</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E109" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="G109" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>283</v>
+      </c>
+      <c r="C110" t="s">
         <v>244</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D110" t="s">
         <v>75</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E110" t="s">
         <v>116</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="G110" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B96" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" t="s">
         <v>245</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D111" t="s">
         <v>76</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E111" t="s">
         <v>89</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="G111" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C97" t="s">
-        <v>108</v>
-      </c>
-      <c r="D97" t="s">
-        <v>117</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C98" t="s">
-        <v>109</v>
-      </c>
-      <c r="D98" t="s">
-        <v>118</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C99" t="s">
-        <v>110</v>
-      </c>
-      <c r="D99" t="s">
-        <v>119</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B100" t="s">
-        <v>246</v>
-      </c>
-      <c r="C100" t="s">
-        <v>68</v>
-      </c>
-      <c r="D100" t="s">
-        <v>111</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" t="s">
-        <v>247</v>
-      </c>
-      <c r="C101" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" t="s">
-        <v>112</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C102" t="s">
-        <v>70</v>
-      </c>
-      <c r="D102" t="s">
-        <v>70</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B103" t="s">
-        <v>249</v>
-      </c>
-      <c r="C103" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" t="s">
-        <v>113</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B104" t="s">
-        <v>250</v>
-      </c>
-      <c r="C104" t="s">
-        <v>72</v>
-      </c>
-      <c r="D104" t="s">
-        <v>114</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B105" t="s">
-        <v>251</v>
-      </c>
-      <c r="C105" t="s">
-        <v>73</v>
-      </c>
-      <c r="D105" t="s">
-        <v>73</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B106" t="s">
-        <v>252</v>
-      </c>
-      <c r="C106" t="s">
-        <v>74</v>
-      </c>
-      <c r="D106" t="s">
-        <v>115</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
-        <v>253</v>
-      </c>
-      <c r="C107" t="s">
-        <v>75</v>
-      </c>
-      <c r="D107" t="s">
-        <v>116</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B108" t="s">
-        <v>254</v>
-      </c>
-      <c r="C108" t="s">
-        <v>76</v>
-      </c>
-      <c r="D108" t="s">
-        <v>89</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B109" t="s">
-        <v>255</v>
-      </c>
-      <c r="C109" t="s">
-        <v>256</v>
-      </c>
-      <c r="D109" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
-        <v>257</v>
-      </c>
-      <c r="C110" t="s">
-        <v>259</v>
-      </c>
-      <c r="D110" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B111" t="s">
-        <v>258</v>
-      </c>
-      <c r="C111" t="s">
-        <v>260</v>
-      </c>
-      <c r="D111" t="s">
-        <v>263</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:F99"/>
+  <autoFilter ref="A1:G111">
+    <sortState ref="A2:G111">
+      <sortCondition ref="A1:A111"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A3:G111">
+    <sortCondition ref="B2:B111"/>
+    <sortCondition ref="C2:C111"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/olafia/2 Anamnese/Engelsk oversettelse Selvregistreringsskjemaet Anne og Patricia.xlsx
+++ b/olafia/2 Anamnese/Engelsk oversettelse Selvregistreringsskjemaet Anne og Patricia.xlsx
@@ -1359,9 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1411,7 +1409,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1434,7 +1432,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1540,7 +1538,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1563,7 +1561,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1626,7 +1624,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2119,7 +2117,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2136,7 +2134,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2958,7 +2956,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2981,7 +2979,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
